--- a/all_acts/Списание31.05.2023.xlsx
+++ b/all_acts/Списание31.05.2023.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -527,6 +527,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>СКЛАД2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Полки Польша</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>СКЛАД1</t>
         </is>
       </c>
